--- a/500all/speech_level/speeches_CHRG-114hhrg93278.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93278.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400365</t>
   </si>
   <si>
-    <t>F. James Sensenbrenner, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Subcommittee will come to order. Without objection, the Chair will be authorized to declare recesses when there are votes in the House. And hearing no objection, so ordered.    The Chair will yield himself some time for an opening statement.    It is hard to believe this can happen in America. The Government is seizing billions of dollars of cash and property from Americans, often without charging them with a crime. With origins in medieval law, civil asset forfeiture is premised on the legal fiction that inanimate objects bear moral culpability when used for wrongdoing.    The practice regained prominence as a weapon in the modern drug war as law enforcement sought to disrupt criminal organizations by seizing the cash that sustains them. The practice, however, has proven a far greater affront to civil rights than it has been as a weapon against crime.    While forfeitures have received increased attention in recent months, they are still poorly understood. During her recent confirmation hearing, Loretta Lynch, President Obama's nominee to replace Eric Holder as Attorney General, testified that civil asset forfeiture is ``done pursuant to supervision by a court, it is done pursuant to a court order, and I believe the protections are there.''    As a United States attorney, Lynch was known for her aggressive use of forfeiture provisions. She was, however, wrong when she testified that forfeiture is done pursuant to supervision by a court and wrong again when she said it was done pursuant to a court order. One wonders if she would still believe that the protections were there if she properly understood how they worked.    After property is seized, its owner will usually have the option of challenging the seizure judicially with the Federal court system or administratively with the seizing agency itself. Seizures that are not challenged within 30 days of receiving notice are automatically forfeited.    A majority of Federal civil forfeitures are never contested largely because of the high cost of retaining counsel, which often exceeds the value of the property itself. Because of the expense and complexity of the Federal court system and the short timeframe, most owners who contest forfeitures do so administratively. Thus, contrary to Ms. Lynch's testimony, only a small percentage of Federal civil forfeitures have any involvement or supervision by a court or a judge.    I look forward to hearing from our witnesses today about whether these administrative processes provide property owners with sufficient protections. Better documented has been the Justice Department's use of adoption, which occurs when a Federal agency adopts a seizure from a State or local law enforcement and proceeds with Federal forfeiture.    Under the Equitable Sharing Program, DOJ returns up to 80 percent of the forfeited money to State agencies. Federal adoption allows police to ignore restrictions in State law by working with the Federal Government.    A 2011 study found that police were, in fact, more likely to rely on Federal equitable sharing in States where the law made forfeitures more difficult or less rewarding. This presents a profound federalism problem and opens law enforcement agencies to allegations that they are policing for profit.    After 5 last night, at the last minute before today's hearing, DOJ sent new guidance on the revised adoption procedures it issued last month. I look forward to learning more about the impact of these revised adoption guidelines.    Just last month, we learned that the DEA, through their cold consent searches, may have improperly searched citizens' belongings at transportation hubs throughout the country. During these searches, DEA seized cash based mainly on the suspicion that a large quantity of cash was indicative of illegal activity.    To make matters worse, according to the DOJ Inspector General, DEA did not always provide adequate information to those who had their cash seized. At times, people did not even know which agency had seized their money, making contesting the seizure extremely difficult.    Our Founders understood the virtues of limited government. The right to own property is enshrined in the Fifth Amendment, which says no person shall be deprived of life, liberty, or property without due process of law. Current forfeiture provisions mock the spirit and meaning of that passage and create serious issues under several other constitutional provisions.    It is no wonder why my former colleague, Henry Hyde, described civil asset forfeiture as ``an unrelenting Government assault on property rights, fueled by a dangerous and emotional vigilante mentality that sanctions shredding the U.S. Constitution into meaningless confetti.''    Hyde led an effort that culminated in the passage of the Civil Asset Forfeiture Reform Act, known as CAFRA. It was a noble effort, but it plainly fell short. In advancing CAFRA, Hyde noted that in 1993, DOJ forfeited $556 million. Post-CAFRA, in 2012, DOJ seized $4 billion.    Forfeiture's only defenders seem to be its beneficiaries, the law enforcement agencies entitled to keep the proceeds of their seizures. The conflict of interest so stark that it takes us to another stage, and adequate forfeiture reform is overdue.    I yield back the balance of my time and recognize the gentlewoman from Texas, the new Ranking Member of this Subcommittee, Ms. Jackson Lee.</t>
   </si>
   <si>
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you very much, Mr. Chairman.    I look forward to working with you, and I commend you for calling the first hearing of this Subcommittee in the 114th Congress to focus on the important issue of asset forfeiture.    I would also like to acknowledge my colleagues, the Ranking Member, Mr. Conyers, Ms. Chu, Ms. Bass, and the other Members of this Committee who will be working with us in this term on what I consider a very important Committee.    It is especially appropriate that we start with this topic because today's hearing concerns foundational principles with respect to the relationship between government and its citizens. We ask government, largely through law enforcement agencies, to help protect us from crime, and we also expect that the government will respect our rights and not harm us.    When we convict someone of a crime, often we deprive him or her of liberty. And for that, we put the burden on the government to prove guilt beyond a reasonable doubt. When the government seeks to use civil forfeiture laws to take someone's property, only needing to prove its case by preponderance of the evidence, the government is not putting the person in prison, but it may be taking someone's home or property that is critical to a person's survival or livelihood.    And of course, seizing even a relatively small amount of money may present a hardship for those of lesser means. The Government's practice of asset forfeiture involves the intake of substantial sums of money. The forfeiture funds maintained by the Department of Justice and Department of Treasury together take in over $2 billion per year.    The size of these amounts helps put into focus the tension between our property and due process rights on the one hand, and the Government's interests in maintaining this funding system on the other hand, often relying on civil forfeiture procedures involving the low standard of proof.    That is why we must ensure that the Federal laws that allow the forfeiture of money and other assets include necessary protections to ensure the innocent do not suffer from wrongful confiscation. Unfortunately, it is increasingly apparent that our laws are not sufficient in this regard.    The Chairman is right. We have looked at these issues over a period of time on this Committee and on our larger--on the full Committee. And I believe this is an important issue to take up at this time.    We must guarantee that innocent owners are given a clear, affordable mechanism to successfully challenge unwarranted forfeiture, and the burden should not be on them to prove their innocence. Or we must end the practice of adoptive forfeitures that motivate some State and local law enforcement agencies to engage in tactics such as highway interdictions for the purpose of seizing assets to raise money.    And while Federal law enforcement functions should be robustly funded through the normal appropriations process, we must eliminate any financial benefits that Federal law enforcement agencies may receive.    For a moment, Mr. Chairman, if I might take note of the fact that we are operating under a set of laws that we have had since 1789 and then the revised statutes of the United States approved on June 22, 1874, and a body of laws called the Code of Laws of the United States of America. And I only say that to stop for a moment and to acknowledge, as the Chairman indicated, my presence here as a new Ranking Member and my commitment to working with the Chairman.    But I must take note of the fact that over the last 2 years, we have had a tumultuous time operating under the Criminal Code. We have seen families raise questions about the transparency of grand juries. We know that there is a need for prison reform.    I want to thank the Chairman for his overcriminalization task force, working with Ranking Member Conyers and Chairman Goodlatte, and we know that there is a high rate of incarceration. I am hoping, as this Committee proceeds in its work, that we can work in a bipartisan manner to address the questions of mandatory minimums, prison reform, transparency in grand jury, and, yes, the use of lethal force.    America is a great country, and I am proud to be an American. I believe its laws are important laws that exude liberty and justice. But I know that we on this Subcommittee, working with the full Committee, can find a pathway that treats fairly those who lift the hand of the law, who must go out every day to protect and serve, and those who are subjected to the law.    My commitment is working with this Committee in a bipartisan manner to find that pathway and to give relief to mothers of persons such as Trayvon Martin, Eric Garner, Sean Bell, Tamir, and many others, who likewise are facing concerns that they would like to have addressed.    With that, Mr. Chairman, I yield back my time.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. I thank Chairman Sensenbrenner for convening this hearing today on the important issue of civil asset forfeiture, and I, along with the gentleman from Wisconsin, the gentlewoman from Texas, Mrs. Jackson Lee; and the gentleman from Michigan, Mr. Conyers; as well as others here today, were all serving on this Committee the last time Congress delved deeply into forfeiture.    In 2000, Congress passed CAFRA, the Civil Asset Forfeiture Reform Act. CAFRA came from a recognition by this Committee and by others that civil asset forfeiture is a useful law enforcement tool, but one that needs to be carefully monitored. That same recognition exists today, but with the understanding that perhaps we need to add to the protections of CAFRA.    Recent reports by The Washington Post, the New Yorker, and others have shown that there are systemic problems in the current system of civil forfeiture. We have heard of citizens losing their car or home when others in their family have been involved in small crimes. We have heard of traffic stops that result in innocent people losing the cash they were carrying to buy a car or for their small business.    These stories, along with the recent Department of Justice Inspector General report on DEA cold consent encounters, have also highlighted the long and complicated process that innocent owners must go through to get their property back. As the report noted, travelers may be under significant pressure to sign away their belongings because of the location of the cold consent encounters. The Inspector General also noted that many citizens are not even aware of which agency seized their property, making contesting the preceding forfeiture action extremely difficult.    I understand two of the witnesses today have represented these innocent owners and are familiar with the procedural morass of the current system. I look forward to hearing from them about how we can change the process to make sure that fewer innocent people are caught in the web of civil forfeiture while making it easier for those who are to be made whole.    I also look forward to hearing from law enforcement. As I said at the beginning, I believe that civil forfeiture, when used appropriately, is a useful law enforcement tool that helps to eliminate the profits from criminal enterprises. Like any law enforcement tool, if used improperly or without significant safeguards, it has the possibility of infringing on the rights of citizens.    The Justice Department, as the largest law enforcement agency in the country, has a vital role to play in this. We have heard a number of problems stemming from Federal adoptions of State seizures. I look forward to hearing from the department about how the recently announced changes to the department's adoption policy will impact the department's law enforcement responsibilities and how the new policy will impact law enforcement.    I also understand there are significant exceptions to the so-called ban on Federal adoptions and look forward to hearing why those exceptions are in place and how wide the exceptions really are and whether or not they are an effective reform.    I am also eager to hear from our local law enforcement officials. As the front line of all efforts to fight crime, it is imperative that we make sure that they have the tools they need to confront the criminal elements within their jurisdiction.    While there have been changes since the passage of CAFRA and many more States now have their own forfeiture laws, the resources of our State and local law enforcement to prosecute forfeiture actions has not increased. I look forward to hearing from Mr. Henderson, a local prosecutor, about the resources at his disposal, how important Federal forfeiture is to policing and law enforcement in his county, and most importantly, how the recently announced DOJ policy will impact his ability to do his job.    I am thankful that we have this opportunity to learn more about current civil forfeiture. I am eager to hear about ways we can strengthen the procedures and policies to make sure that this law enforcement tool can be used without infringing on the rights of ordinary Americans.    I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Chair now recognizes the Ranking Member of the Committee, the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Goodlatte.    I, first of all, welcome all the witnesses, especially the witness from the Institute for Justice and our own witness, David Smith from Smith &amp; Zimmerman.    Members of the Committee and Chairman Sensenbrenner, it has become increasingly apparent that the procedures in Federal law governing civil asset forfeiture are inadequate from the perspective of fundamental fairness. And that is the theme I am getting from much of the opening statements.    The unfairness of these laws and related procedures have recently been highlighted by revelations about abuses involving adoptive seizures. The practice of adoptive forfeiture allows the Federal Government to share the proceeds of the seizures with State and local law enforcement agencies and has motivated some of these agencies to engage in policing for profit.    The series of articles in the Washington Post last year, entitled ``Stop and Seize,'' detailed how equitable sharing motivated some State and local police to engage in abusive and coercive traffic stops in order to find pretense to seize assets from motorists. I have been hearing about that for a long time before I even came to the Congress.    I commend the Attorney General Eric Holder, who apparently conservatives want to keep in that spot for as long as they can, for engaging in a review of Federal forfeiture policy. And specifically, last month, he was announcing significant changes to the Justice Department's procedures governing adoptive seizures.    The changes purport to cease this practice except when necessary to protect public safety. But I remain concerned that the new policy includes other exceptions, which would allow adoptive seizures to continue to a significant degree.    Yesterday, the Justice Department announces clarifications to its policy, and I hope the department's witness will provide us as much information about that today as he can. And I hope that other witnesses will offer comments on this policy as well.    We must address the fundamental flaws in Federal forfeiture law. The problem is much broader, and I think Ranking Member Jackson Lee of Texas made some comment in this direction. We must address the Federal fundamental flaws in forfeiture law. The problem is much broader in scope than the issue of adoptive seizures.    The vast majority of forfeitures processed under the Federal law are the result of seizures by Federal law enforcement, and we must do more than adjust policies. We must change Federal law so that the burden is on the Government to prove that a property owner is not innocent, to raise the burden of proof on the Government when bringing a case, to send the proceeds of forfeitures to the general treasury fund, and to codify the elimination of equitable sharing.    And finally, asset forfeiture reform has long been a bipartisan issue, raising serious concerns about fairness and due process on both sides of the aisle. We last enacted reform to the law in 2000 under the Civil Asset Forfeiture Reform Act, which I coauthored with its primary sponsor, the late Henry Hyde. And so, we have learned a lot since the passage of that law, and that is why I am working with the Chairman of this Subcommittee and its Ranking Member to develop legislation addressing these issues.    I thank the Chair, and I return the balance of my time.</t>
   </si>
   <si>
@@ -103,36 +91,24 @@
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    Without objection, other Members' opening statements will be made a part of the record.    Today's witnesses are, first, Mr. Kenneth Blanco. Mr. Blanco was appointed to the position of Deputy Assistant Attorney General of the U.S. Department of Justice in April of 2008. His supervisory responsibilities include the Asset Forfeiture and Money Laundering Section, Child Exploitation Section, Narcotic and Dangerous Drug Section, and matters relating to Colombia and Mexico.    Previously, Mr. Blanco served in various sections of the Miami-Dade County State Attorney's Office, including the Organized Crime Section, Public Corruption Section, and the Major Narcotics Section. He also served in the U.S. Attorney's Office for the Southern District of Florida as an assistant United States attorney, and served in numerous leadership positions.    He was also detailed to Washington, D.C., to serve as general counsel to the 1994 United States Attorney's Office in the Executive Office of United States Attorneys. He also served as the Chief of the Narcotic and Dangerous Drug Section at DOJ prior to his current position. He earned his law degree from Georgetown Law Center.    Mr. Keith Henderson is the prosecuting attorney for Floyd County, Indiana. Prior to his four terms as Floyd County prosecutor, he was a Crawford County prosecutor and a former Indiana State trooper. He previously practiced private law and consulting.    He is a board member of the Indiana Prosecuting Attorneys Council and current Chairman of its Ethics Committee. He represents Indiana prosecutors on the National District Attorneys Board and has served on its Executive Committee since 2007, which means he is currently serving in his ninth year.    Mr. Henderson earned his undergraduate degree at Valparaiso University and his juris doctor at Brandeis School of Law.    Third is Darpana Sheth. She is an attorney with the Institute for Justice. Her responsibilities include litigating property rights cases, as well as economic liberty cases. Prior to her role at the Institute for Justice, Ms. Sheth served as assistant attorney general for the State of New York. She previously practiced law as a litigation associate at the New York City law firm of Chadbourne &amp; Parke, LLP.    She also served as a law clerk to the Honorable Jerome A. Holmes of the U.S. Court of Appeals for the 10th Circuit. She received her undergraduate degree from the University of Pennsylvania and her law degree from Georgetown University Law Center.    Mr. David Smith is in private practice at the law firm of Smith &amp; Zimmerman, PLCC. His areas of practice include civil and criminal forfeiture, white-collar defense, restitution, and fines and criminal appeals.    Prior to private practice, he was a prosecutor in the Criminal Division of the United States Department of Justice and at the U.S. attorney's office in Alexandria, Virginia. While at DOJ, Mr. Smith served in the Appellate and Narcotic Sections of the Criminal Division and as first deputy chief of the Asset Forfeiture Office.    He earned his undergraduate degree from the University of Pennsylvania, was a graduate student at Pembroke College, and earned his law degree from Yale Law School.    Without objection, each of the witnesses' statements will be entered into the record in its entirety.    I ask that each witness summarize his or her testimony in 5 minutes or less. You all know what the red, yellow, and green lights mean.    And Mr. Blanco, you are first.</t>
   </si>
   <si>
-    <t>Blanco</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blanco. Thank you, Chairman Goodlatte, Ranking Member Conyers, Chairman Sensenbrenner, and Ranking Member Jackson Lee, and other Committee Members.    I appreciate the opportunity to talk to you today about asset forfeiture and to discuss some recent misconceptions about our law enforcement efforts in this area.    As you know, asset forfeiture is designed to remove criminally tainted assets from circulation, thereby depriving criminals of the proceeds of crimes and the tools they have used to commit those crimes. By taking criminally tainted assets out of circulation and off the streets, we intend to break the financial backbone of organized criminal syndicates, terrorists, fraudsters, drug cartels, and use these assets to compensate victims and deter crime.    Over the past 15 years, the department has returned billions of dollars to victims as a result of forfeiture. Nearly half of that was recovered through civil forfeiture. The department is proud of its Asset Forfeiture Program.    However, we are keenly aware of certain concerns raised about certain seizures and forfeiture practices. The department takes seriously allegations of abuse of the forfeiture program, and we are constantly looking forward of ways to improve it.    Over the past year, the department has been conducting an internal review of the Asset Forfeiture Program and the first results, the strict limitations on adoptions, were announced last month. This means that while State law enforcement agencies may undertake asset forfeiture under State law, the department will not adopt State seizures to be forfeited under Federal law unless certain public safety exceptions exist. The review that led to this change in our practice is continuing.    Now I would like to address some of the most widespread misconceptions about civil forfeiture. We are acutely sensitive to the misconception and criticism that owners of seized property are presumed guilty and, thus, have the burden of proving their innocence to regain their property. This is not correct. In civil forfeiture, the burden is always on the Government. In order to seize an asset, the Government must show probable cause, linking that asset or that property to a crime.    Then if the seizure is contested, the Government has the burden of proving by a preponderance of the evidence the nexus of that property in question to a crime before the Government can forfeit that property. If the Government fails to meet this burden of linking the property to a crime, the Government loses its case.    In other words, the property's connection to a crime must be proven by the Government, not disproven by the owner. Only after the Government meets its burden of proving that the property is criminally tainted--that is, it represents the proceeds of a crime or has facilitated a crime--does the Government get the forfeited property. After the Government has met its burden and the property is adjudicated or determined to be forfeited, the law provides the property owner the opportunity to assert an innocent owner claim.    Critics also claim that civil forfeiture enables the Government to take possession of a person's property without charging or convicting that person of a crime. The criticism is that we can seize and forfeit property in the complete absence of a crime. This is not the case. The property seized, the Government must have probable cause to believe that it is connected to criminal misconduct.    To forfeit property in a civil proceeding, the Government has to prove by a preponderance of the evidence that that property was tied to a crime. The Government must always demonstrate a nexus to a crime.    Now in many cases, the assets may be separated by design from their true owner and criminal. The tainted property may be in the possession of a third party other than the person who committed the crime.    Criminals may be located outside the United States and outside the reach of our jurisdiction. The defendant or criminal may also be deceased. In these cases, civil forfeiture is the only means by which the Government can take these criminally tainted assets out of circulation and repay the victims.    Finally, it is important to note that asset forfeiture enables the Government to assist and compensate victims of crime. In fact, asset forfeiture laws, including civil asset forfeiture laws, are the most effective tool in recovering the proceeds and property of crime for victims. Since 2000, the department has returned over $4 billion in assets to victims of crime through asset forfeiture, $1.87 billion of which was recovered through civil forfeiture and returned to victims.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much, Mr. Blanco.    Mr. Henderson?</t>
   </si>
   <si>
-    <t>Henderson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Henderson. Chairman Sensenbrenner, Chairman Goodlatte, Ranking Member Jackson Lee, and Ranking Member Conyers, Members of the Subcommittee, my name is Keith Henderson. I am the prosecuting attorney in Floyd County, Indiana, part of the Louisville, Kentucky, metro area.    I am also here today as a member of the Executive Committee for the National District Attorneys Association, NDAA, the largest and oldest organization representing prosecutors from across the country.    Civil asset forfeiture laws have changed substantially over the years, beginning with the Federal forfeiture program and now including forfeiture laws in most States. On Friday, January 16th, Attorney General Eric Holder announced changes to these civil forfeiture policies under the DOJ that would eliminate the ability of State and local law enforcement to seize assets and turn them over to Federal authorities for forfeiture.    NDAA as well as law enforcement have expressed concern that these policies have not adequately been studied as far as the impact on and the direction on State and local governments and that a key constituency has been left out of that process. Attorney General Holder indicated that State adoptions would be prohibited, and I quote, ``except for property that directly relates to public safety concerns, including firearms, ammunition, explosives, and properties associated with child pornography.''    While we applaud the continued inclusion of these types of property, we remain concerned that the decision is yet another step in the continued erosion of drug enforcement by the Federal Government.    Asset forfeiture is a tool. It is a tool used by law enforcement to go after the pocketbooks of drug dealers. If we take away the disincentive for these criminals to profit from their crimes, we could jeopardize the safety of our communities and drug enforcement.    Additionally, there is less of an incentive now for locals to partner with Federal officials. Agencies such as the FBI and DEA need participation from local law enforcement, as these Federal agencies rely heavily on local intelligence being gathered to aid in the broader investigations. Local police must now question the financial feasibility of embedding officers with Federal law enforcement with these changes.    As part of the recent decision, drug forfeitures would be severely limited, and adoptions would only be granted through very narrow exceptions. For example, under the new policy, DOJ will take an adoption if a firearm is involved but might not otherwise. This approach seems shortsighted, as very few cases involve just firearms.    The bottom line is this. Drug dealing remains a major crux of crime in this country. It is the root cause of many other crimes of violence. From murder to property crime to the endpoint of the increasing number of drug-ingested deaths, the human destruction attributable to drug dealing remains high.    Criticisms of the program have been offered with stories of individuals having assets seized and never returned, regardless of the outcome of any criminal charges. Let me be clear. Our members strongly support due process under the law and fully denounce any seizure of property and other assets of falsely accused individuals.    Several potential reforms could be examined in conjunction with a comprehensive study. We do not condone unfair and abusive practices, but we must have factual documentation of these abuses in order to properly understand what types of reform could make the current system more effective.    Recently, four national law enforcement organizations--the Major Cities Chiefs, the Major County Sheriffs, the International Association of Chiefs of Police, and the National Sheriffs--all signed a letter to the Attorney General regarding the Asset Forfeiture Program and included some major policy proposals for reforms. We stand with law enforcement in calling for these reforms to be reviewed as potential paths forward on the Asset Forfeiture Program.    Finally, NDAA believes that law enforcement and prosecutors should always avoid pursuing forfeiture actions when the primary purpose is to obtain assets rather than pursue a criminal prosecution. We remain hopeful that the Administration and DOJ will improve its communication with organizations that I have outlined and with NDAA as a means to develop sound, practical, and effective policy.    We stand ready to engage with the department on this issue and many others.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Ms. Sheth?</t>
   </si>
   <si>
-    <t>Sheth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sheth. Good morning, Mr. Chairman Sensenbrenner, Mr. Chairman Goodlatte, Ranking Member Jackson Lee, and Ranking Member Conyers, and Members of the Committee.    Thank you for inviting me to testify about the urgent need to reform our Federal forfeiture laws. There is an emerging consensus across the political spectrum that the time for reform is now. Even the Justice Department and the State and local law enforcement have conceded the need for reform.    In light of this overwhelming consensus, I will focus my remarks on two key aspects that Congress must address. First, the self-financing of law enforcement agencies, which inherently distorts law enforcement priorities. And second, the inadequate procedural protections afforded to property owners.    Current Federal law incentivizes forfeiture by allowing law enforcement agencies to keep 100 percent of the proceeds. At a time when government at all levels face serious budget shortfalls, it is no surprise that forfeiture has become ever more attractive. But directing forfeiture proceeds back to the very agencies responsible for the forfeiture is antithetical to our American constitutional system in three ways.    First, the self-funding of executive branch agencies violates the separation of powers. The Constitution gives Congress, the most representative branch of Government, the power over the purse. And it is past time for Congress to reclaim this power as an important check on the executive branch.    Second, it violates principles of federalism. Under the Equitable Sharing Program, State and local law enforcement can seize property for a Federal forfeiture action and then share in the proceeds. As Mr. Henderson even acknowledges in his written statement, this generous bounty encourages State and local law enforcement to evade their own stricter State laws in favor of more lax Federal rules.    The DOJ's new policy does not cure this problem, as it leaves almost three-quarters of all equitable sharing cases untouched.    Third, giving law enforcement a direct financial incentive in the seizure of property violates a central command of due process. The administration of justice must be impartial. The lack of impartiality is best seen in a single statistic. In the last 6 years, almost two-thirds of all Federal forfeitures were administrative with the process conducted by the seizing agency itself, without any judicial involvement.    But even when the judicial branch is involved in civil forfeitures, there are inadequate safeguards to protect property owners. My written testimony details these gaps, including the lack of counsel, the low burden of proof on the Government, and the absence of a prompt opportunity to contest the seizure of cash.    But I want to highlight a key deficiency. Contrary to Mr. Blanco's testimony, the process does, in fact, turn the presumption of innocence on its head. In administrative proceedings, the forfeiture is presumed valid, and the property owner must make the case for its return.    In civil forfeiture proceedings, it is true that the Government must prove the property is connected to a crime. But under the innocent owner provision, the burden then shifts to the property owners to affirmatively prove they did not know of the illegal activity. Consequently, in civil forfeiture, while the property might be presumed guilty, property owners very much are.    The absence of adequate process, married to the perverse financial incentive, has led to widespread abuse, with a disproportionate impact on minorities. If only civil forfeiture were limited to the unusual situations like criminals overseas or criminals who are deceased, as highlighted by Mr. Blanco or in his written statement, like Michael Vick's pit bulls or rare dinosaur eggs, we could all pack up and go home. But civil forfeiture has treated countless of ordinary Americans worse than criminals.    Since 9/11, civil forfeiture has resulted in more than 61,000 cash seizures totaling $2.5 billion through highway interdictions, all without any search warrants or indictments. And there are many like my client Russ Caswell, who stood to lose his family-run motel to civil forfeiture, even though he did nothing wrong.    While convicted criminals should not benefit from their ill-gotten gains, no one in America should lose their property without being convicted of a crime. This is not about bad apples in law enforcement. This is fundamentally about bad incentives, flawed incentives.    The solution is not to better police the police. The solution is to end policies that distort their incentives. This financial incentive and the lack of process undermine our public trust in law enforcement and the belief that is so vital to our republic that we are a nation ruled by laws and not by men.    Thank you for your time and attention.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much.    Mr. Smith?</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    I only have 5 minutes, and I have been asked to focus my remarks on administrative forfeitures, an area that most people don't know that much about. And we have heard a little bit about it this morning, but I am hoping that the Subcommittee will focus some of the reforms on the much-neglected administrative process.    As my colleague Ms. Sheth just mentioned, the vast majority of civil forfeiture cases begin and end as administrative forfeitures. So a judge never sees those cases.    I explain in my written statement how Congress vastly expanded the scope of administrative forfeitures in two pieces of legislation way back in 1984 and 1990. Before 1984, only property valued at less than $10,000 was subject to administrative forfeiture. The two amendments in 1984 and 1990 made almost all property subject to administrative forfeiture.    The main exceptions to that are real estate and property valued at over $500,000. And incidentally, currency, which is frequently seized, there is no--there is no limit on the amount of currency that can be administratively forfeited.    So considering that I think Ms. Sheth said 67 percent of all forfeiture cases are administrative, it deserves a lot more attention than it has gotten. And it is largely an invisible process, so invisible, indeed, that neither the press nor the Justice Department has really focused on what is wrong with it because it is very hard--as some Members of this Committee have found out, it is very hard to actually find out the facts about administrative forfeiture.    Gathering, I know letters--there have been Washington Post stories about letters that Mr. Sensenbrenner has submitted to the DEA and other branches of the Government asking for some statistics, and they still haven't been answered, months later. And that gives you an idea of how difficult it is for anyone to find out what is really going on.    But I know what is going on because I deal with these cases constantly, and believe me, it is not a pretty picture. Contrary to Mr. Blanco's written statement, administrative forfeitures are not surrounded by all sorts of procedural protections designed to protect a property owner. He doesn't mention what those protections are, and I am not aware of them. And I think I would be if they were there.    He mentions the fact that there is a probable cause requirement that is a legal requirement for any forfeiture, and it is also a constitutional requirement in the Fourth Amendment. But who actually is enforcing that probable cause requirement? That is the real issue.    In an administrative forfeiture, essentially no one is enforcing it. There is no judge involved. There is no prosecutor involved. The only people who are involved are law enforcement agency employees, both on the State and local level and that is in adoptive cases, and on the Federal level, the Federal seizing agencies are involved in they are supposed to assess whether there is probable cause for the forfeiture.    Unfortunately, I find that in case after case, they fail to do so, and it is a systematic failure. It is not just a few bad apples, which is the typical explanation you will get from the Justice Department or the law enforcement community. It is not just a few bad apples. It is a systematic failure to enforce this probable cause requirement.    I want to be discriminating. These seizing agencies are vastly different from each other. I find that the DEA and Customs and Border Patrol are probably the worst in terms of doing their job here. The FBI is one of the best. So I don't want to lump everybody in the same boat.    But you know, DEA and Custom and Border Patrol do an enormous percentage of the forfeitures in this country, the administrative forfeitures as well. And there is a culture in the general counsel's offices of those agencies, which I am familiar with, and it is a very bad culture for individual property rights.    The attorneys in these counsel's offices are underworked, overpaid, and not committed to enforcing constitutional rights. What they are committed to is doing as many administrative forfeitures as quickly as possible and thereby eliminating those cases from what goes into court.    And it is a very bad culture, and it is illustrated by all sorts of--you don't have to take my word for it. You just have to look at some of the cases that have been litigated. I see I am over my time already.    But it is all in there, and I would be happy to answer questions about this. I suggested a number of reforms, the detailed reforms of the administrative process, and I have also submitted an unrelated----</t>
   </si>
   <si>
@@ -322,9 +298,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman.    Mr. Blanco, quick questions for you. You mentioned in your opening statement that asset forfeiture is designed to break the financial backbone of organized criminal syndicates and drug cartels. Correct?</t>
   </si>
   <si>
@@ -451,9 +424,6 @@
     <t>412404</t>
   </si>
   <si>
-    <t>Karen Bass</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bass. I want to thank the Chair and the Ranking Member for this hearing, and I am really glad that the Committee is going to look into this issue.    And I just have to tell you, years ago I remember when some of these laws were being passed around--asset forfeiture--that many folks in communities were hoping that some of the resources would actually go for drug treatment or other resources in the community. And clearly, that hasn't happened.    I did want to ask you about one particular area. I would like for you to talk about what happens to forfeitures related to the prosecution of child sex traffickers? So a recent report on the issue says that Federal prosecutors aren't aggressively pursuing restitution for victims of sex trafficking, even though it is required under TVPA.    And I am wondering if Mr. Blanco could answer that, and perhaps Mr. Smith can comment?</t>
   </si>
   <si>
@@ -517,9 +487,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman.    Ms. Sheth, I have been out of the courtroom for a long time, and I think the whole world has changed since I was last there. I want to give you a chance to tell me how much of it has changed. Can you still waive your right to remain silent and confess, even to the most heinous of crimes?</t>
   </si>
   <si>
@@ -596,9 +563,6 @@
   </si>
   <si>
     <t>412379</t>
-  </si>
-  <si>
-    <t>Judy Chu</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Chu. Mr. Blanco, just yesterday there was the directive issued, and it required the Federal prosecutor to justify in writing whether there should be a joint task force. But it seemed that the new directive doesn't prescribe the importance of any particular factor.    Could you describe a situation in which a Federal prosecutor may find one, but not all of the factors to be present and still find insufficient Federal law enforcement oversight or participation? For example, could you walk us through how a prosecutor would determine whether Federal forfeiture should apply in situations where Federal authorities are not involved in the investigation leading up to the seizure but were only pulled in at the time of the actual seizure?</t>
@@ -1024,11 +988,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1048,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1076,11 +1036,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1100,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1128,11 +1084,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1152,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1180,11 +1132,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1204,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1232,11 +1180,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1256,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1284,11 +1228,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1308,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1336,11 +1276,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1360,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1388,11 +1324,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1412,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1440,11 +1372,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1464,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1492,11 +1420,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1516,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1544,11 +1468,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1568,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1596,11 +1516,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1620,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1648,11 +1564,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1672,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1700,11 +1612,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1724,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1752,11 +1660,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1776,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1804,11 +1708,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1828,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1854,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1880,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1906,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1932,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1958,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1984,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2010,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2038,11 +1924,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2062,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2090,11 +1972,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2114,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2140,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2166,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2192,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2218,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2244,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2270,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2296,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2322,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2348,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2374,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2400,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2426,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2452,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2478,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2504,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2530,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2556,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2582,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2608,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2634,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2660,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2688,11 +2524,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2712,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2740,11 +2572,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2764,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2792,11 +2620,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2816,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2842,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2868,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2894,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2920,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2946,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2972,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2998,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3024,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3052,11 +2860,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3076,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
-      </c>
-      <c r="G81" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3102,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3128,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3154,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3180,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
-      </c>
-      <c r="G85" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3206,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3232,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3258,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3284,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
-      </c>
-      <c r="G89" t="s">
+        <v>93</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>102</v>
-      </c>
-      <c r="H89" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3310,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3336,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3362,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3388,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G93" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3414,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3440,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3466,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3492,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>101</v>
-      </c>
-      <c r="G97" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3518,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3544,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3570,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3596,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>101</v>
-      </c>
-      <c r="G101" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3622,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3648,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>101</v>
-      </c>
-      <c r="G103" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3674,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3700,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>101</v>
-      </c>
-      <c r="G105" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3726,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3752,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>101</v>
-      </c>
-      <c r="G107" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3778,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3804,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>101</v>
-      </c>
-      <c r="G109" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3830,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3856,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>101</v>
-      </c>
-      <c r="G111" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3882,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3908,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>101</v>
-      </c>
-      <c r="G113" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3934,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3960,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>101</v>
-      </c>
-      <c r="G115" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3986,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4012,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>101</v>
-      </c>
-      <c r="G117" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4038,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4064,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>101</v>
-      </c>
-      <c r="G119" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4090,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4118,11 +3844,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4142,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>144</v>
-      </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4168,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4194,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4220,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4246,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4272,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4298,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>144</v>
-      </c>
-      <c r="G128" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4324,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4350,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>144</v>
-      </c>
-      <c r="G130" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4376,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4402,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>144</v>
-      </c>
-      <c r="G132" t="s">
+        <v>135</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
         <v>145</v>
-      </c>
-      <c r="H132" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4428,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4454,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>144</v>
-      </c>
-      <c r="G134" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4480,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4506,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>144</v>
-      </c>
-      <c r="G136" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4532,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4558,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4584,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4610,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4636,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>144</v>
-      </c>
-      <c r="G141" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4664,11 +4348,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4688,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>166</v>
-      </c>
-      <c r="G143" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4714,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4740,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
-      </c>
-      <c r="G145" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4766,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4792,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
-      </c>
-      <c r="G147" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4818,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4844,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>166</v>
-      </c>
-      <c r="G149" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4870,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4896,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>166</v>
-      </c>
-      <c r="G151" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4922,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4948,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>166</v>
-      </c>
-      <c r="G153" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4974,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5000,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
+        <v>156</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
         <v>166</v>
-      </c>
-      <c r="G155" t="s">
-        <v>167</v>
-      </c>
-      <c r="H155" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5026,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5052,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>166</v>
-      </c>
-      <c r="G157" t="s">
+        <v>156</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>167</v>
-      </c>
-      <c r="H157" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5078,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5104,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
-      </c>
-      <c r="G159" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5130,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5156,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>166</v>
-      </c>
-      <c r="G161" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5182,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5208,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>166</v>
-      </c>
-      <c r="G163" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5234,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5260,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>166</v>
-      </c>
-      <c r="G165" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5286,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5312,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>166</v>
-      </c>
-      <c r="G167" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5338,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5364,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>166</v>
-      </c>
-      <c r="G169" t="s">
-        <v>167</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5390,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5418,11 +5044,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5442,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
-      </c>
-      <c r="G172" t="s">
-        <v>194</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5468,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5494,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>193</v>
-      </c>
-      <c r="G174" t="s">
-        <v>194</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5520,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5546,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>193</v>
-      </c>
-      <c r="G176" t="s">
-        <v>194</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5572,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5600,11 +5212,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5624,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5652,11 +5260,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93278.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93278.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400365</t>
   </si>
   <si>
+    <t>Sensenbrenner</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Subcommittee will come to order. Without objection, the Chair will be authorized to declare recesses when there are votes in the House. And hearing no objection, so ordered.    The Chair will yield himself some time for an opening statement.    It is hard to believe this can happen in America. The Government is seizing billions of dollars of cash and property from Americans, often without charging them with a crime. With origins in medieval law, civil asset forfeiture is premised on the legal fiction that inanimate objects bear moral culpability when used for wrongdoing.    The practice regained prominence as a weapon in the modern drug war as law enforcement sought to disrupt criminal organizations by seizing the cash that sustains them. The practice, however, has proven a far greater affront to civil rights than it has been as a weapon against crime.    While forfeitures have received increased attention in recent months, they are still poorly understood. During her recent confirmation hearing, Loretta Lynch, President Obama's nominee to replace Eric Holder as Attorney General, testified that civil asset forfeiture is ``done pursuant to supervision by a court, it is done pursuant to a court order, and I believe the protections are there.''    As a United States attorney, Lynch was known for her aggressive use of forfeiture provisions. She was, however, wrong when she testified that forfeiture is done pursuant to supervision by a court and wrong again when she said it was done pursuant to a court order. One wonders if she would still believe that the protections were there if she properly understood how they worked.    After property is seized, its owner will usually have the option of challenging the seizure judicially with the Federal court system or administratively with the seizing agency itself. Seizures that are not challenged within 30 days of receiving notice are automatically forfeited.    A majority of Federal civil forfeitures are never contested largely because of the high cost of retaining counsel, which often exceeds the value of the property itself. Because of the expense and complexity of the Federal court system and the short timeframe, most owners who contest forfeitures do so administratively. Thus, contrary to Ms. Lynch's testimony, only a small percentage of Federal civil forfeitures have any involvement or supervision by a court or a judge.    I look forward to hearing from our witnesses today about whether these administrative processes provide property owners with sufficient protections. Better documented has been the Justice Department's use of adoption, which occurs when a Federal agency adopts a seizure from a State or local law enforcement and proceeds with Federal forfeiture.    Under the Equitable Sharing Program, DOJ returns up to 80 percent of the forfeited money to State agencies. Federal adoption allows police to ignore restrictions in State law by working with the Federal Government.    A 2011 study found that police were, in fact, more likely to rely on Federal equitable sharing in States where the law made forfeitures more difficult or less rewarding. This presents a profound federalism problem and opens law enforcement agencies to allegations that they are policing for profit.    After 5 last night, at the last minute before today's hearing, DOJ sent new guidance on the revised adoption procedures it issued last month. I look forward to learning more about the impact of these revised adoption guidelines.    Just last month, we learned that the DEA, through their cold consent searches, may have improperly searched citizens' belongings at transportation hubs throughout the country. During these searches, DEA seized cash based mainly on the suspicion that a large quantity of cash was indicative of illegal activity.    To make matters worse, according to the DOJ Inspector General, DEA did not always provide adequate information to those who had their cash seized. At times, people did not even know which agency had seized their money, making contesting the seizure extremely difficult.    Our Founders understood the virtues of limited government. The right to own property is enshrined in the Fifth Amendment, which says no person shall be deprived of life, liberty, or property without due process of law. Current forfeiture provisions mock the spirit and meaning of that passage and create serious issues under several other constitutional provisions.    It is no wonder why my former colleague, Henry Hyde, described civil asset forfeiture as ``an unrelenting Government assault on property rights, fueled by a dangerous and emotional vigilante mentality that sanctions shredding the U.S. Constitution into meaningless confetti.''    Hyde led an effort that culminated in the passage of the Civil Asset Forfeiture Reform Act, known as CAFRA. It was a noble effort, but it plainly fell short. In advancing CAFRA, Hyde noted that in 1993, DOJ forfeited $556 million. Post-CAFRA, in 2012, DOJ seized $4 billion.    Forfeiture's only defenders seem to be its beneficiaries, the law enforcement agencies entitled to keep the proceeds of their seizures. The conflict of interest so stark that it takes us to another stage, and adequate forfeiture reform is overdue.    I yield back the balance of my time and recognize the gentlewoman from Texas, the new Ranking Member of this Subcommittee, Ms. Jackson Lee.</t>
   </si>
   <si>
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Thank you very much, Mr. Chairman.    I look forward to working with you, and I commend you for calling the first hearing of this Subcommittee in the 114th Congress to focus on the important issue of asset forfeiture.    I would also like to acknowledge my colleagues, the Ranking Member, Mr. Conyers, Ms. Chu, Ms. Bass, and the other Members of this Committee who will be working with us in this term on what I consider a very important Committee.    It is especially appropriate that we start with this topic because today's hearing concerns foundational principles with respect to the relationship between government and its citizens. We ask government, largely through law enforcement agencies, to help protect us from crime, and we also expect that the government will respect our rights and not harm us.    When we convict someone of a crime, often we deprive him or her of liberty. And for that, we put the burden on the government to prove guilt beyond a reasonable doubt. When the government seeks to use civil forfeiture laws to take someone's property, only needing to prove its case by preponderance of the evidence, the government is not putting the person in prison, but it may be taking someone's home or property that is critical to a person's survival or livelihood.    And of course, seizing even a relatively small amount of money may present a hardship for those of lesser means. The Government's practice of asset forfeiture involves the intake of substantial sums of money. The forfeiture funds maintained by the Department of Justice and Department of Treasury together take in over $2 billion per year.    The size of these amounts helps put into focus the tension between our property and due process rights on the one hand, and the Government's interests in maintaining this funding system on the other hand, often relying on civil forfeiture procedures involving the low standard of proof.    That is why we must ensure that the Federal laws that allow the forfeiture of money and other assets include necessary protections to ensure the innocent do not suffer from wrongful confiscation. Unfortunately, it is increasingly apparent that our laws are not sufficient in this regard.    The Chairman is right. We have looked at these issues over a period of time on this Committee and on our larger--on the full Committee. And I believe this is an important issue to take up at this time.    We must guarantee that innocent owners are given a clear, affordable mechanism to successfully challenge unwarranted forfeiture, and the burden should not be on them to prove their innocence. Or we must end the practice of adoptive forfeitures that motivate some State and local law enforcement agencies to engage in tactics such as highway interdictions for the purpose of seizing assets to raise money.    And while Federal law enforcement functions should be robustly funded through the normal appropriations process, we must eliminate any financial benefits that Federal law enforcement agencies may receive.    For a moment, Mr. Chairman, if I might take note of the fact that we are operating under a set of laws that we have had since 1789 and then the revised statutes of the United States approved on June 22, 1874, and a body of laws called the Code of Laws of the United States of America. And I only say that to stop for a moment and to acknowledge, as the Chairman indicated, my presence here as a new Ranking Member and my commitment to working with the Chairman.    But I must take note of the fact that over the last 2 years, we have had a tumultuous time operating under the Criminal Code. We have seen families raise questions about the transparency of grand juries. We know that there is a need for prison reform.    I want to thank the Chairman for his overcriminalization task force, working with Ranking Member Conyers and Chairman Goodlatte, and we know that there is a high rate of incarceration. I am hoping, as this Committee proceeds in its work, that we can work in a bipartisan manner to address the questions of mandatory minimums, prison reform, transparency in grand jury, and, yes, the use of lethal force.    America is a great country, and I am proud to be an American. I believe its laws are important laws that exude liberty and justice. But I know that we on this Subcommittee, working with the full Committee, can find a pathway that treats fairly those who lift the hand of the law, who must go out every day to protect and serve, and those who are subjected to the law.    My commitment is working with this Committee in a bipartisan manner to find that pathway and to give relief to mothers of persons such as Trayvon Martin, Eric Garner, Sean Bell, Tamir, and many others, who likewise are facing concerns that they would like to have addressed.    With that, Mr. Chairman, I yield back my time.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. I thank Chairman Sensenbrenner for convening this hearing today on the important issue of civil asset forfeiture, and I, along with the gentleman from Wisconsin, the gentlewoman from Texas, Mrs. Jackson Lee; and the gentleman from Michigan, Mr. Conyers; as well as others here today, were all serving on this Committee the last time Congress delved deeply into forfeiture.    In 2000, Congress passed CAFRA, the Civil Asset Forfeiture Reform Act. CAFRA came from a recognition by this Committee and by others that civil asset forfeiture is a useful law enforcement tool, but one that needs to be carefully monitored. That same recognition exists today, but with the understanding that perhaps we need to add to the protections of CAFRA.    Recent reports by The Washington Post, the New Yorker, and others have shown that there are systemic problems in the current system of civil forfeiture. We have heard of citizens losing their car or home when others in their family have been involved in small crimes. We have heard of traffic stops that result in innocent people losing the cash they were carrying to buy a car or for their small business.    These stories, along with the recent Department of Justice Inspector General report on DEA cold consent encounters, have also highlighted the long and complicated process that innocent owners must go through to get their property back. As the report noted, travelers may be under significant pressure to sign away their belongings because of the location of the cold consent encounters. The Inspector General also noted that many citizens are not even aware of which agency seized their property, making contesting the preceding forfeiture action extremely difficult.    I understand two of the witnesses today have represented these innocent owners and are familiar with the procedural morass of the current system. I look forward to hearing from them about how we can change the process to make sure that fewer innocent people are caught in the web of civil forfeiture while making it easier for those who are to be made whole.    I also look forward to hearing from law enforcement. As I said at the beginning, I believe that civil forfeiture, when used appropriately, is a useful law enforcement tool that helps to eliminate the profits from criminal enterprises. Like any law enforcement tool, if used improperly or without significant safeguards, it has the possibility of infringing on the rights of citizens.    The Justice Department, as the largest law enforcement agency in the country, has a vital role to play in this. We have heard a number of problems stemming from Federal adoptions of State seizures. I look forward to hearing from the department about how the recently announced changes to the department's adoption policy will impact the department's law enforcement responsibilities and how the new policy will impact law enforcement.    I also understand there are significant exceptions to the so-called ban on Federal adoptions and look forward to hearing why those exceptions are in place and how wide the exceptions really are and whether or not they are an effective reform.    I am also eager to hear from our local law enforcement officials. As the front line of all efforts to fight crime, it is imperative that we make sure that they have the tools they need to confront the criminal elements within their jurisdiction.    While there have been changes since the passage of CAFRA and many more States now have their own forfeiture laws, the resources of our State and local law enforcement to prosecute forfeiture actions has not increased. I look forward to hearing from Mr. Henderson, a local prosecutor, about the resources at his disposal, how important Federal forfeiture is to policing and law enforcement in his county, and most importantly, how the recently announced DOJ policy will impact his ability to do his job.    I am thankful that we have this opportunity to learn more about current civil forfeiture. I am eager to hear about ways we can strengthen the procedures and policies to make sure that this law enforcement tool can be used without infringing on the rights of ordinary Americans.    I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Chair now recognizes the Ranking Member of the Committee, the gentleman from Michigan, Mr. Conyers.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Goodlatte.    I, first of all, welcome all the witnesses, especially the witness from the Institute for Justice and our own witness, David Smith from Smith &amp; Zimmerman.    Members of the Committee and Chairman Sensenbrenner, it has become increasingly apparent that the procedures in Federal law governing civil asset forfeiture are inadequate from the perspective of fundamental fairness. And that is the theme I am getting from much of the opening statements.    The unfairness of these laws and related procedures have recently been highlighted by revelations about abuses involving adoptive seizures. The practice of adoptive forfeiture allows the Federal Government to share the proceeds of the seizures with State and local law enforcement agencies and has motivated some of these agencies to engage in policing for profit.    The series of articles in the Washington Post last year, entitled ``Stop and Seize,'' detailed how equitable sharing motivated some State and local police to engage in abusive and coercive traffic stops in order to find pretense to seize assets from motorists. I have been hearing about that for a long time before I even came to the Congress.    I commend the Attorney General Eric Holder, who apparently conservatives want to keep in that spot for as long as they can, for engaging in a review of Federal forfeiture policy. And specifically, last month, he was announcing significant changes to the Justice Department's procedures governing adoptive seizures.    The changes purport to cease this practice except when necessary to protect public safety. But I remain concerned that the new policy includes other exceptions, which would allow adoptive seizures to continue to a significant degree.    Yesterday, the Justice Department announces clarifications to its policy, and I hope the department's witness will provide us as much information about that today as he can. And I hope that other witnesses will offer comments on this policy as well.    We must address the fundamental flaws in Federal forfeiture law. The problem is much broader, and I think Ranking Member Jackson Lee of Texas made some comment in this direction. We must address the Federal fundamental flaws in forfeiture law. The problem is much broader in scope than the issue of adoptive seizures.    The vast majority of forfeitures processed under the Federal law are the result of seizures by Federal law enforcement, and we must do more than adjust policies. We must change Federal law so that the burden is on the Government to prove that a property owner is not innocent, to raise the burden of proof on the Government when bringing a case, to send the proceeds of forfeitures to the general treasury fund, and to codify the elimination of equitable sharing.    And finally, asset forfeiture reform has long been a bipartisan issue, raising serious concerns about fairness and due process on both sides of the aisle. We last enacted reform to the law in 2000 under the Civil Asset Forfeiture Reform Act, which I coauthored with its primary sponsor, the late Henry Hyde. And so, we have learned a lot since the passage of that law, and that is why I am working with the Chairman of this Subcommittee and its Ranking Member to develop legislation addressing these issues.    I thank the Chair, and I return the balance of my time.</t>
   </si>
   <si>
@@ -91,24 +112,36 @@
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you.    Without objection, other Members' opening statements will be made a part of the record.    Today's witnesses are, first, Mr. Kenneth Blanco. Mr. Blanco was appointed to the position of Deputy Assistant Attorney General of the U.S. Department of Justice in April of 2008. His supervisory responsibilities include the Asset Forfeiture and Money Laundering Section, Child Exploitation Section, Narcotic and Dangerous Drug Section, and matters relating to Colombia and Mexico.    Previously, Mr. Blanco served in various sections of the Miami-Dade County State Attorney's Office, including the Organized Crime Section, Public Corruption Section, and the Major Narcotics Section. He also served in the U.S. Attorney's Office for the Southern District of Florida as an assistant United States attorney, and served in numerous leadership positions.    He was also detailed to Washington, D.C., to serve as general counsel to the 1994 United States Attorney's Office in the Executive Office of United States Attorneys. He also served as the Chief of the Narcotic and Dangerous Drug Section at DOJ prior to his current position. He earned his law degree from Georgetown Law Center.    Mr. Keith Henderson is the prosecuting attorney for Floyd County, Indiana. Prior to his four terms as Floyd County prosecutor, he was a Crawford County prosecutor and a former Indiana State trooper. He previously practiced private law and consulting.    He is a board member of the Indiana Prosecuting Attorneys Council and current Chairman of its Ethics Committee. He represents Indiana prosecutors on the National District Attorneys Board and has served on its Executive Committee since 2007, which means he is currently serving in his ninth year.    Mr. Henderson earned his undergraduate degree at Valparaiso University and his juris doctor at Brandeis School of Law.    Third is Darpana Sheth. She is an attorney with the Institute for Justice. Her responsibilities include litigating property rights cases, as well as economic liberty cases. Prior to her role at the Institute for Justice, Ms. Sheth served as assistant attorney general for the State of New York. She previously practiced law as a litigation associate at the New York City law firm of Chadbourne &amp; Parke, LLP.    She also served as a law clerk to the Honorable Jerome A. Holmes of the U.S. Court of Appeals for the 10th Circuit. She received her undergraduate degree from the University of Pennsylvania and her law degree from Georgetown University Law Center.    Mr. David Smith is in private practice at the law firm of Smith &amp; Zimmerman, PLCC. His areas of practice include civil and criminal forfeiture, white-collar defense, restitution, and fines and criminal appeals.    Prior to private practice, he was a prosecutor in the Criminal Division of the United States Department of Justice and at the U.S. attorney's office in Alexandria, Virginia. While at DOJ, Mr. Smith served in the Appellate and Narcotic Sections of the Criminal Division and as first deputy chief of the Asset Forfeiture Office.    He earned his undergraduate degree from the University of Pennsylvania, was a graduate student at Pembroke College, and earned his law degree from Yale Law School.    Without objection, each of the witnesses' statements will be entered into the record in its entirety.    I ask that each witness summarize his or her testimony in 5 minutes or less. You all know what the red, yellow, and green lights mean.    And Mr. Blanco, you are first.</t>
   </si>
   <si>
+    <t>Blanco</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Blanco. Thank you, Chairman Goodlatte, Ranking Member Conyers, Chairman Sensenbrenner, and Ranking Member Jackson Lee, and other Committee Members.    I appreciate the opportunity to talk to you today about asset forfeiture and to discuss some recent misconceptions about our law enforcement efforts in this area.    As you know, asset forfeiture is designed to remove criminally tainted assets from circulation, thereby depriving criminals of the proceeds of crimes and the tools they have used to commit those crimes. By taking criminally tainted assets out of circulation and off the streets, we intend to break the financial backbone of organized criminal syndicates, terrorists, fraudsters, drug cartels, and use these assets to compensate victims and deter crime.    Over the past 15 years, the department has returned billions of dollars to victims as a result of forfeiture. Nearly half of that was recovered through civil forfeiture. The department is proud of its Asset Forfeiture Program.    However, we are keenly aware of certain concerns raised about certain seizures and forfeiture practices. The department takes seriously allegations of abuse of the forfeiture program, and we are constantly looking forward of ways to improve it.    Over the past year, the department has been conducting an internal review of the Asset Forfeiture Program and the first results, the strict limitations on adoptions, were announced last month. This means that while State law enforcement agencies may undertake asset forfeiture under State law, the department will not adopt State seizures to be forfeited under Federal law unless certain public safety exceptions exist. The review that led to this change in our practice is continuing.    Now I would like to address some of the most widespread misconceptions about civil forfeiture. We are acutely sensitive to the misconception and criticism that owners of seized property are presumed guilty and, thus, have the burden of proving their innocence to regain their property. This is not correct. In civil forfeiture, the burden is always on the Government. In order to seize an asset, the Government must show probable cause, linking that asset or that property to a crime.    Then if the seizure is contested, the Government has the burden of proving by a preponderance of the evidence the nexus of that property in question to a crime before the Government can forfeit that property. If the Government fails to meet this burden of linking the property to a crime, the Government loses its case.    In other words, the property's connection to a crime must be proven by the Government, not disproven by the owner. Only after the Government meets its burden of proving that the property is criminally tainted--that is, it represents the proceeds of a crime or has facilitated a crime--does the Government get the forfeited property. After the Government has met its burden and the property is adjudicated or determined to be forfeited, the law provides the property owner the opportunity to assert an innocent owner claim.    Critics also claim that civil forfeiture enables the Government to take possession of a person's property without charging or convicting that person of a crime. The criticism is that we can seize and forfeit property in the complete absence of a crime. This is not the case. The property seized, the Government must have probable cause to believe that it is connected to criminal misconduct.    To forfeit property in a civil proceeding, the Government has to prove by a preponderance of the evidence that that property was tied to a crime. The Government must always demonstrate a nexus to a crime.    Now in many cases, the assets may be separated by design from their true owner and criminal. The tainted property may be in the possession of a third party other than the person who committed the crime.    Criminals may be located outside the United States and outside the reach of our jurisdiction. The defendant or criminal may also be deceased. In these cases, civil forfeiture is the only means by which the Government can take these criminally tainted assets out of circulation and repay the victims.    Finally, it is important to note that asset forfeiture enables the Government to assist and compensate victims of crime. In fact, asset forfeiture laws, including civil asset forfeiture laws, are the most effective tool in recovering the proceeds and property of crime for victims. Since 2000, the department has returned over $4 billion in assets to victims of crime through asset forfeiture, $1.87 billion of which was recovered through civil forfeiture and returned to victims.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much, Mr. Blanco.    Mr. Henderson?</t>
   </si>
   <si>
+    <t>Henderson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Henderson. Chairman Sensenbrenner, Chairman Goodlatte, Ranking Member Jackson Lee, and Ranking Member Conyers, Members of the Subcommittee, my name is Keith Henderson. I am the prosecuting attorney in Floyd County, Indiana, part of the Louisville, Kentucky, metro area.    I am also here today as a member of the Executive Committee for the National District Attorneys Association, NDAA, the largest and oldest organization representing prosecutors from across the country.    Civil asset forfeiture laws have changed substantially over the years, beginning with the Federal forfeiture program and now including forfeiture laws in most States. On Friday, January 16th, Attorney General Eric Holder announced changes to these civil forfeiture policies under the DOJ that would eliminate the ability of State and local law enforcement to seize assets and turn them over to Federal authorities for forfeiture.    NDAA as well as law enforcement have expressed concern that these policies have not adequately been studied as far as the impact on and the direction on State and local governments and that a key constituency has been left out of that process. Attorney General Holder indicated that State adoptions would be prohibited, and I quote, ``except for property that directly relates to public safety concerns, including firearms, ammunition, explosives, and properties associated with child pornography.''    While we applaud the continued inclusion of these types of property, we remain concerned that the decision is yet another step in the continued erosion of drug enforcement by the Federal Government.    Asset forfeiture is a tool. It is a tool used by law enforcement to go after the pocketbooks of drug dealers. If we take away the disincentive for these criminals to profit from their crimes, we could jeopardize the safety of our communities and drug enforcement.    Additionally, there is less of an incentive now for locals to partner with Federal officials. Agencies such as the FBI and DEA need participation from local law enforcement, as these Federal agencies rely heavily on local intelligence being gathered to aid in the broader investigations. Local police must now question the financial feasibility of embedding officers with Federal law enforcement with these changes.    As part of the recent decision, drug forfeitures would be severely limited, and adoptions would only be granted through very narrow exceptions. For example, under the new policy, DOJ will take an adoption if a firearm is involved but might not otherwise. This approach seems shortsighted, as very few cases involve just firearms.    The bottom line is this. Drug dealing remains a major crux of crime in this country. It is the root cause of many other crimes of violence. From murder to property crime to the endpoint of the increasing number of drug-ingested deaths, the human destruction attributable to drug dealing remains high.    Criticisms of the program have been offered with stories of individuals having assets seized and never returned, regardless of the outcome of any criminal charges. Let me be clear. Our members strongly support due process under the law and fully denounce any seizure of property and other assets of falsely accused individuals.    Several potential reforms could be examined in conjunction with a comprehensive study. We do not condone unfair and abusive practices, but we must have factual documentation of these abuses in order to properly understand what types of reform could make the current system more effective.    Recently, four national law enforcement organizations--the Major Cities Chiefs, the Major County Sheriffs, the International Association of Chiefs of Police, and the National Sheriffs--all signed a letter to the Attorney General regarding the Asset Forfeiture Program and included some major policy proposals for reforms. We stand with law enforcement in calling for these reforms to be reviewed as potential paths forward on the Asset Forfeiture Program.    Finally, NDAA believes that law enforcement and prosecutors should always avoid pursuing forfeiture actions when the primary purpose is to obtain assets rather than pursue a criminal prosecution. We remain hopeful that the Administration and DOJ will improve its communication with organizations that I have outlined and with NDAA as a means to develop sound, practical, and effective policy.    We stand ready to engage with the department on this issue and many others.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Ms. Sheth?</t>
   </si>
   <si>
+    <t>Sheth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sheth. Good morning, Mr. Chairman Sensenbrenner, Mr. Chairman Goodlatte, Ranking Member Jackson Lee, and Ranking Member Conyers, and Members of the Committee.    Thank you for inviting me to testify about the urgent need to reform our Federal forfeiture laws. There is an emerging consensus across the political spectrum that the time for reform is now. Even the Justice Department and the State and local law enforcement have conceded the need for reform.    In light of this overwhelming consensus, I will focus my remarks on two key aspects that Congress must address. First, the self-financing of law enforcement agencies, which inherently distorts law enforcement priorities. And second, the inadequate procedural protections afforded to property owners.    Current Federal law incentivizes forfeiture by allowing law enforcement agencies to keep 100 percent of the proceeds. At a time when government at all levels face serious budget shortfalls, it is no surprise that forfeiture has become ever more attractive. But directing forfeiture proceeds back to the very agencies responsible for the forfeiture is antithetical to our American constitutional system in three ways.    First, the self-funding of executive branch agencies violates the separation of powers. The Constitution gives Congress, the most representative branch of Government, the power over the purse. And it is past time for Congress to reclaim this power as an important check on the executive branch.    Second, it violates principles of federalism. Under the Equitable Sharing Program, State and local law enforcement can seize property for a Federal forfeiture action and then share in the proceeds. As Mr. Henderson even acknowledges in his written statement, this generous bounty encourages State and local law enforcement to evade their own stricter State laws in favor of more lax Federal rules.    The DOJ's new policy does not cure this problem, as it leaves almost three-quarters of all equitable sharing cases untouched.    Third, giving law enforcement a direct financial incentive in the seizure of property violates a central command of due process. The administration of justice must be impartial. The lack of impartiality is best seen in a single statistic. In the last 6 years, almost two-thirds of all Federal forfeitures were administrative with the process conducted by the seizing agency itself, without any judicial involvement.    But even when the judicial branch is involved in civil forfeitures, there are inadequate safeguards to protect property owners. My written testimony details these gaps, including the lack of counsel, the low burden of proof on the Government, and the absence of a prompt opportunity to contest the seizure of cash.    But I want to highlight a key deficiency. Contrary to Mr. Blanco's testimony, the process does, in fact, turn the presumption of innocence on its head. In administrative proceedings, the forfeiture is presumed valid, and the property owner must make the case for its return.    In civil forfeiture proceedings, it is true that the Government must prove the property is connected to a crime. But under the innocent owner provision, the burden then shifts to the property owners to affirmatively prove they did not know of the illegal activity. Consequently, in civil forfeiture, while the property might be presumed guilty, property owners very much are.    The absence of adequate process, married to the perverse financial incentive, has led to widespread abuse, with a disproportionate impact on minorities. If only civil forfeiture were limited to the unusual situations like criminals overseas or criminals who are deceased, as highlighted by Mr. Blanco or in his written statement, like Michael Vick's pit bulls or rare dinosaur eggs, we could all pack up and go home. But civil forfeiture has treated countless of ordinary Americans worse than criminals.    Since 9/11, civil forfeiture has resulted in more than 61,000 cash seizures totaling $2.5 billion through highway interdictions, all without any search warrants or indictments. And there are many like my client Russ Caswell, who stood to lose his family-run motel to civil forfeiture, even though he did nothing wrong.    While convicted criminals should not benefit from their ill-gotten gains, no one in America should lose their property without being convicted of a crime. This is not about bad apples in law enforcement. This is fundamentally about bad incentives, flawed incentives.    The solution is not to better police the police. The solution is to end policies that distort their incentives. This financial incentive and the lack of process undermine our public trust in law enforcement and the belief that is so vital to our republic that we are a nation ruled by laws and not by men.    Thank you for your time and attention.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much.    Mr. Smith?</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman.    I only have 5 minutes, and I have been asked to focus my remarks on administrative forfeitures, an area that most people don't know that much about. And we have heard a little bit about it this morning, but I am hoping that the Subcommittee will focus some of the reforms on the much-neglected administrative process.    As my colleague Ms. Sheth just mentioned, the vast majority of civil forfeiture cases begin and end as administrative forfeitures. So a judge never sees those cases.    I explain in my written statement how Congress vastly expanded the scope of administrative forfeitures in two pieces of legislation way back in 1984 and 1990. Before 1984, only property valued at less than $10,000 was subject to administrative forfeiture. The two amendments in 1984 and 1990 made almost all property subject to administrative forfeiture.    The main exceptions to that are real estate and property valued at over $500,000. And incidentally, currency, which is frequently seized, there is no--there is no limit on the amount of currency that can be administratively forfeited.    So considering that I think Ms. Sheth said 67 percent of all forfeiture cases are administrative, it deserves a lot more attention than it has gotten. And it is largely an invisible process, so invisible, indeed, that neither the press nor the Justice Department has really focused on what is wrong with it because it is very hard--as some Members of this Committee have found out, it is very hard to actually find out the facts about administrative forfeiture.    Gathering, I know letters--there have been Washington Post stories about letters that Mr. Sensenbrenner has submitted to the DEA and other branches of the Government asking for some statistics, and they still haven't been answered, months later. And that gives you an idea of how difficult it is for anyone to find out what is really going on.    But I know what is going on because I deal with these cases constantly, and believe me, it is not a pretty picture. Contrary to Mr. Blanco's written statement, administrative forfeitures are not surrounded by all sorts of procedural protections designed to protect a property owner. He doesn't mention what those protections are, and I am not aware of them. And I think I would be if they were there.    He mentions the fact that there is a probable cause requirement that is a legal requirement for any forfeiture, and it is also a constitutional requirement in the Fourth Amendment. But who actually is enforcing that probable cause requirement? That is the real issue.    In an administrative forfeiture, essentially no one is enforcing it. There is no judge involved. There is no prosecutor involved. The only people who are involved are law enforcement agency employees, both on the State and local level and that is in adoptive cases, and on the Federal level, the Federal seizing agencies are involved in they are supposed to assess whether there is probable cause for the forfeiture.    Unfortunately, I find that in case after case, they fail to do so, and it is a systematic failure. It is not just a few bad apples, which is the typical explanation you will get from the Justice Department or the law enforcement community. It is not just a few bad apples. It is a systematic failure to enforce this probable cause requirement.    I want to be discriminating. These seizing agencies are vastly different from each other. I find that the DEA and Customs and Border Patrol are probably the worst in terms of doing their job here. The FBI is one of the best. So I don't want to lump everybody in the same boat.    But you know, DEA and Custom and Border Patrol do an enormous percentage of the forfeitures in this country, the administrative forfeitures as well. And there is a culture in the general counsel's offices of those agencies, which I am familiar with, and it is a very bad culture for individual property rights.    The attorneys in these counsel's offices are underworked, overpaid, and not committed to enforcing constitutional rights. What they are committed to is doing as many administrative forfeitures as quickly as possible and thereby eliminating those cases from what goes into court.    And it is a very bad culture, and it is illustrated by all sorts of--you don't have to take my word for it. You just have to look at some of the cases that have been litigated. I see I am over my time already.    But it is all in there, and I would be happy to answer questions about this. I suggested a number of reforms, the detailed reforms of the administrative process, and I have also submitted an unrelated----</t>
   </si>
   <si>
@@ -298,6 +331,12 @@
     <t>412619</t>
   </si>
   <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman.    Mr. Blanco, quick questions for you. You mentioned in your opening statement that asset forfeiture is designed to break the financial backbone of organized criminal syndicates and drug cartels. Correct?</t>
   </si>
   <si>
@@ -424,6 +463,12 @@
     <t>412404</t>
   </si>
   <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bass. I want to thank the Chair and the Ranking Member for this hearing, and I am really glad that the Committee is going to look into this issue.    And I just have to tell you, years ago I remember when some of these laws were being passed around--asset forfeiture--that many folks in communities were hoping that some of the resources would actually go for drug treatment or other resources in the community. And clearly, that hasn't happened.    I did want to ask you about one particular area. I would like for you to talk about what happens to forfeitures related to the prosecution of child sex traffickers? So a recent report on the issue says that Federal prosecutors aren't aggressively pursuing restitution for victims of sex trafficking, even though it is required under TVPA.    And I am wondering if Mr. Blanco could answer that, and perhaps Mr. Smith can comment?</t>
   </si>
   <si>
@@ -487,6 +532,12 @@
     <t>412473</t>
   </si>
   <si>
+    <t>Gowdy</t>
+  </si>
+  <si>
+    <t>Trey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman.    Ms. Sheth, I have been out of the courtroom for a long time, and I think the whole world has changed since I was last there. I want to give you a chance to tell me how much of it has changed. Can you still waive your right to remain silent and confess, even to the most heinous of crimes?</t>
   </si>
   <si>
@@ -563,6 +614,12 @@
   </si>
   <si>
     <t>412379</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Judy</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Chu. Mr. Blanco, just yesterday there was the directive issued, and it required the Federal prosecutor to justify in writing whether there should be a joint task force. But it seemed that the new directive doesn't prescribe the importance of any particular factor.    Could you describe a situation in which a Federal prosecutor may find one, but not all of the factors to be present and still find insufficient Federal law enforcement oversight or participation? For example, could you walk us through how a prosecutor would determine whether Federal forfeiture should apply in situations where Federal authorities are not involved in the investigation leading up to the seizure but were only pulled in at the time of the actual seizure?</t>
@@ -938,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,7 +1003,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,4301 +1025,5003 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G85" t="s">
+        <v>105</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>93</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G91" t="s">
+        <v>105</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>105</v>
+      </c>
       <c r="H93" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s">
+        <v>105</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G97" t="s">
+        <v>105</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>93</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s">
+        <v>105</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G101" t="s">
+        <v>105</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>93</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G103" t="s">
+        <v>105</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>93</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>105</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>93</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G107" t="s">
+        <v>105</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>93</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G109" t="s">
+        <v>105</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>93</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G111" t="s">
+        <v>105</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G113" t="s">
+        <v>105</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>32</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G115" t="s">
+        <v>105</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G117" t="s">
+        <v>105</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>93</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G119" t="s">
+        <v>105</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>32</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G122" t="s">
+        <v>149</v>
+      </c>
       <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G124" t="s">
+        <v>149</v>
+      </c>
       <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>32</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G126" t="s">
+        <v>149</v>
+      </c>
       <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G128" t="s">
+        <v>149</v>
+      </c>
       <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G130" t="s">
+        <v>149</v>
+      </c>
       <c r="H130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G132" t="s">
+        <v>149</v>
+      </c>
       <c r="H132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>38</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G134" t="s">
+        <v>149</v>
+      </c>
       <c r="H134" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G136" t="s">
+        <v>149</v>
+      </c>
       <c r="H136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>38</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>135</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G139" t="s">
+        <v>149</v>
+      </c>
       <c r="H139" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>135</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>148</v>
+      </c>
+      <c r="G141" t="s">
+        <v>149</v>
+      </c>
       <c r="H141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G143" t="s">
+        <v>172</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>156</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G145" t="s">
+        <v>172</v>
+      </c>
       <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>38</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>156</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G147" t="s">
+        <v>172</v>
+      </c>
       <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>38</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>156</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G149" t="s">
+        <v>172</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>38</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>156</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G151" t="s">
+        <v>172</v>
+      </c>
       <c r="H151" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>38</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>156</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G153" t="s">
+        <v>172</v>
+      </c>
       <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>38</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>156</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G155" t="s">
+        <v>172</v>
+      </c>
       <c r="H155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>38</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>156</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G157" t="s">
+        <v>172</v>
+      </c>
       <c r="H157" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>35</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>156</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G159" t="s">
+        <v>172</v>
+      </c>
       <c r="H159" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>32</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>156</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G161" t="s">
+        <v>172</v>
+      </c>
       <c r="H161" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>156</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G163" t="s">
+        <v>172</v>
+      </c>
       <c r="H163" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>156</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G165" t="s">
+        <v>172</v>
+      </c>
       <c r="H165" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>35</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>156</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G167" t="s">
+        <v>172</v>
+      </c>
       <c r="H167" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>156</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G169" t="s">
+        <v>172</v>
+      </c>
       <c r="H169" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>182</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G172" t="s">
+        <v>200</v>
+      </c>
       <c r="H172" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>32</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>182</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G174" t="s">
+        <v>200</v>
+      </c>
       <c r="H174" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>32</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>182</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G176" t="s">
+        <v>200</v>
+      </c>
       <c r="H176" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>38</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>38</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
       <c r="H180" t="s">
-        <v>191</v>
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93278.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93278.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400365</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Sensenbrenner</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Jackson Lee</t>
   </si>
   <si>
@@ -329,6 +338,9 @@
   </si>
   <si>
     <t>412619</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Buck</t>
@@ -995,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,5000 +1040,5344 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>32</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>35</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H93" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>35</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G95" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H95" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G97" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H97" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G101" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H101" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H103" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H105" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G107" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H107" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H109" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G111" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H111" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G113" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H113" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G115" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H115" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G117" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H117" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>35</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G119" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H119" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>35</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G122" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G124" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>32</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G126" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G128" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H128" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G130" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G132" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>41</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G134" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>38</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G136" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>38</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>32</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>35</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G139" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H139" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G141" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H141" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I141" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J141" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G143" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H143" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>41</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G145" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I145" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>38</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>41</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G147" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I147" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>38</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>41</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G149" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I149" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J149" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>38</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G151" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H151" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I151" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G153" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H153" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>38</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G155" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H155" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I155" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>38</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G157" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>35</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>38</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H159" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I159" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>32</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>35</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G161" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H161" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I161" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>38</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G163" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H163" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I163" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>38</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G165" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H165" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I165" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>38</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G167" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H167" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I167" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>35</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>38</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G169" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="H169" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I169" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>38</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G172" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="H172" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I172" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>32</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>35</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G174" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I174" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>32</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>35</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G176" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I176" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>38</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>38</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>41</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I180" t="s">
-        <v>210</v>
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
